--- a/dtpu_configurations/only_integer16/50mhz/mxu_18x18/timing.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_18x18/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>1.714550256729126</v>
+        <v>0.8201901316642761</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.016177281737327576</v>
+        <v>0.017038481310009956</v>
       </c>
     </row>
   </sheetData>
